--- a/KetQuaTest_ProductDao.xlsx
+++ b/KetQuaTest_ProductDao.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -41,12 +41,12 @@
     <t>Tìm kiếm sản phẩm (Tên &amp; Mô tả)</t>
   </si>
   <si>
+    <t>Data: Quan Jean, Ao Thun...</t>
+  </si>
+  <si>
     <t>1. Insert 3 SP
-2. Tìm 'jean' (có trong tên)
-3. Tìm 'cotton' (có trong mô tả)</t>
-  </si>
-  <si>
-    <t>Data: Quan Jean, Ao Thun...</t>
+2. Tìm 'Jean' (Tên &amp; Mô tả)
+3. Tìm 'cotton'</t>
   </si>
   <si>
     <t>Kết quả list trả về đúng số lượng</t>
@@ -58,10 +58,28 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>PROD_DAO_06</t>
+  </si>
+  <si>
+    <t>Tìm theo Category &amp; Loại trừ ID (Sản phẩm liên quan)</t>
+  </si>
+  <si>
+    <t>Cat=1, Exclude ID1</t>
+  </si>
+  <si>
+    <t>Insert 3 SP cùng Cat=1. Tìm Cat=1, Exclude=ID1</t>
+  </si>
+  <si>
+    <t>List chứa SP2, SP3 (size = 2)</t>
+  </si>
+  <si>
     <t>PROD_DAO_03</t>
   </si>
   <si>
     <t>Cập nhật sản phẩm</t>
+  </si>
+  <si>
+    <t>Old: 100k, New: 150k, Tên: Ao Moi</t>
   </si>
   <si>
     <t>1. Insert
@@ -69,25 +87,39 @@
 3. Find lại</t>
   </si>
   <si>
-    <t>Old: 100k, New: 150k</t>
-  </si>
-  <si>
     <t>Dữ liệu mới được lưu</t>
   </si>
   <si>
+    <t>PROD_DAO_07</t>
+  </si>
+  <si>
+    <t>Xóa thất bại do Khóa ngoại (FK)</t>
+  </si>
+  <si>
+    <t>Product có Variant</t>
+  </si>
+  <si>
+    <t>1. Insert Product
+2. Insert Variant trỏ tới Product
+3. Delete Product</t>
+  </si>
+  <si>
+    <t>Trả về 0 (Không xóa được) &amp; Sản phẩm vẫn tồn tại</t>
+  </si>
+  <si>
     <t>PROD_DAO_01</t>
   </si>
   <si>
     <t>Thêm và Tìm kiếm theo ID</t>
+  </si>
+  <si>
+    <t>Name: Ao Thun</t>
   </si>
   <si>
     <t>1. Insert Product
 2. Find by generated ID</t>
   </si>
   <si>
-    <t>Name: Ao Thun</t>
-  </si>
-  <si>
     <t>Trả về object Product đúng tên</t>
   </si>
   <si>
@@ -95,6 +127,9 @@
   </si>
   <si>
     <t>Xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>ID vừa tạo</t>
   </si>
   <si>
     <t>1. Insert
@@ -102,10 +137,23 @@
 3. Find lại</t>
   </si>
   <si>
-    <t>ID vừa tạo</t>
-  </si>
-  <si>
     <t>Find trả về null</t>
+  </si>
+  <si>
+    <t>PROD_DAO_05</t>
+  </si>
+  <si>
+    <t>Lấy tất cả sản phẩm</t>
+  </si>
+  <si>
+    <t>2 Products</t>
+  </si>
+  <si>
+    <t>1. Insert 2 SP
+2. Gọi getAll</t>
+  </si>
+  <si>
+    <t>List size = 2</t>
   </si>
 </sst>
 </file>
@@ -183,17 +231,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.39453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.8671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.08203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.00390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="45.89453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -313,6 +361,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
